--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AddBuff.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_AddBuff.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E89068-CB7F-4E87-9B57-6F39C16CC067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2020FAA-8FEB-4C13-894C-6D84BDBB114C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="1005" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -163,10 +152,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Buff_3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Buff_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -189,35 +174,49 @@
     <t>BuffActionNone</t>
   </si>
   <si>
+    <t>PhysicalAttackAdd;11;13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stun</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>##var</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff要做的事情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,AddBuffInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circle1</t>
+  </si>
+  <si>
+    <t>新增buff：持续直线攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增buff：持续圆形攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>BuffActionModifyAttribute</t>
-  </si>
-  <si>
-    <t>PhysicalAttackAdd;11;13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stun</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>##var</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff要做的事情</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,AddBuffInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffActionModifyControlState</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_Line1</t>
+  </si>
+  <si>
+    <t>Buff_Circle1</t>
   </si>
 </sst>
 </file>
@@ -670,20 +669,22 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="1" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" customWidth="1"/>
-    <col min="7" max="11" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="7" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="21.375" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -718,7 +719,7 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -737,7 +738,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2"/>
@@ -753,7 +754,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -769,7 +770,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -788,9 +789,9 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -801,10 +802,10 @@
       <c r="H4" s="3"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
@@ -819,7 +820,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -848,7 +849,7 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -873,10 +874,10 @@
         <v>18</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
@@ -891,7 +892,7 @@
       <c r="V6"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -903,7 +904,7 @@
         <v>AddBuff_1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7">
         <v>30</v>
@@ -912,48 +913,74 @@
         <v>20</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" ref="D8:D9" si="0">B8&amp;"_"&amp;C8</f>
+        <v>AddBuff_Line1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="G8">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>AddBuff_Circle1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="G9">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="K11" s="6"/>
     </row>
   </sheetData>
